--- a/test/cpt.xlsx
+++ b/test/cpt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>"None"</t>
   </si>
@@ -599,7 +599,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,6 +675,12 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,6 +695,12 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,6 +715,12 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,6 +735,12 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,6 +755,12 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,6 +775,12 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,6 +813,12 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/test/cpt.xlsx
+++ b/test/cpt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{F9E66279-23CF-42D8-8056-7154ED832A51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="5640" xr2:uid="{F9E66279-23CF-42D8-8056-7154ED832A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>"None"</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Fixed arguments: pen_value=0, Q=5, test_stat="Normal", Class=True, param_estimates=True, minseglen=1</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>"Manual"</t>
@@ -599,7 +596,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +626,7 @@
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -664,7 +661,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -673,13 +670,10 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
@@ -692,15 +686,6 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
       <c r="J7" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,15 +697,6 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,14 +708,8 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
       <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>3</v>
@@ -752,15 +722,6 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
       <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,15 +733,6 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
       <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,16 +742,16 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>6</v>
@@ -807,19 +759,10 @@
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/test/cpt.xlsx
+++ b/test/cpt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>"None"</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>NT - not tested</t>
-  </si>
-  <si>
-    <t>NT</t>
   </si>
 </sst>
 </file>
@@ -595,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B477A-1F2A-44E5-AD29-9B5D95F905F9}">
   <dimension ref="B2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,9 +654,6 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,18 +731,6 @@
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>6</v>

--- a/test/cpt.xlsx
+++ b/test/cpt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>"None"</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>cpt_var (vector input)</t>
+  </si>
+  <si>
+    <t>cpt_meanvar (vector input)</t>
+  </si>
+  <si>
+    <t>cpt_var (matrix input)</t>
+  </si>
+  <si>
+    <t>cpt_meanvar (matrix input)</t>
   </si>
 </sst>
 </file>
@@ -211,74 +223,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,10 +239,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -587,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B477A-1F2A-44E5-AD29-9B5D95F905F9}">
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
@@ -677,6 +621,12 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,6 +638,12 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,6 +655,9 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -713,6 +672,12 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
@@ -724,6 +689,12 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
@@ -732,6 +703,15 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
@@ -742,6 +722,214 @@
       </c>
       <c r="E13" t="s">
         <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
